--- a/documents/8.用户手册/用户手册版本控制.xlsx
+++ b/documents/8.用户手册/用户手册版本控制.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>***文档版本控制</t>
   </si>
@@ -69,19 +69,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>邱媛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册初稿拟定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分内容需待开发完成后再进行补充</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>2016.04.06</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2016.04.08</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>邱媛</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>用户手册初稿拟定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分内容需待开发完成后再进行补充</t>
+    <t>1、补充“2.2.系统清单”   2、补充“3.访问系统”   3、完成具体的“系统使用指南”，多以截图形式展现使用方法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -192,6 +208,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -203,9 +222,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,7 +1418,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1"/>
@@ -1415,13 +1431,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="39.65" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1430,11 +1446,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="39.65" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1443,9 +1459,9 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="39.65" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1469,23 +1485,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="39.65" customHeight="1">
